--- a/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Daily report" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -58,13 +58,17 @@
   </si>
   <si>
     <t>Báo cáo công việc hàng ngày - tháng 10/2014</t>
+  </si>
+  <si>
+    <t>- Công việc 1:Tìm hiểu Json và cách sử dụng
+- Công việc 2: Hoàn thành requirement để hoàn thành Q&amp; A.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -307,6 +312,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,31 +488,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="92.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="31.5">
+    <row r="2" spans="2:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75">
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>41921</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="2:3" ht="30">
+    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -514,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30">
+    <row r="6" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -522,7 +528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -530,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -538,13 +544,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -552,34 +558,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" ht="18.75">
+    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f>B4+1</f>
         <v>41922</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="2:3" ht="30">
+    <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
@@ -587,7 +593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
@@ -595,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
@@ -603,13 +609,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -617,26 +623,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" ht="18.75">
+    <row r="22" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f>B13+1</f>
         <v>41923</v>
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="2:3" ht="30">
+    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -644,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="30">
+    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -652,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
@@ -660,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
@@ -668,13 +674,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>6</v>
       </c>
@@ -682,26 +688,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" ht="18.75">
+    <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <f>B22+1</f>
         <v>41924</v>
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="2:3" ht="30">
+    <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>0</v>
       </c>
@@ -709,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="30">
+    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
@@ -717,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
@@ -725,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>3</v>
       </c>
@@ -733,13 +739,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>6</v>
       </c>
@@ -747,13 +753,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>

--- a/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -62,6 +62,26 @@
   <si>
     <t>- Công việc 1:Tìm hiểu Json và cách sử dụng
 - Công việc 2: Hoàn thành requirement để hoàn thành Q&amp; A.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Công việc 1:Start coding, thêm appcompat cho sicco app, Xuống version android, 
+- Công việc 2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Công việc 1: 50%
+- Công việc 2: </t>
+  </si>
+  <si>
+    <t>Chậm tiến độ</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: không down được android 4.0.3 , do wifi laptop có vấn đề.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: sửa lại laptop.</t>
+  </si>
+  <si>
+    <t>Bắt đầu code buid giao diện cho các màn hình liên quan đến Công văn ,Công việc.</t>
   </si>
 </sst>
 </file>
@@ -166,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +205,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C39"/>
+  <dimension ref="B2:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +789,72 @@
         <v>8</v>
       </c>
       <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>41925</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Bắt đầu code buid giao diện cho các màn hình liên quan đến Công văn ,Công việc.</t>
+  </si>
+  <si>
+    <t>`- Công việc 1:Buid giao diện màn hình Công văn.
+`- Công việc 2: Kết nối API cho màn hình Công văn</t>
+  </si>
+  <si>
+    <t>- Công việc 1: 90%
+'- Công việc 2: 100%</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Chưa crack được photoshop.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Crack photoshop và tiếp tục làm</t>
+  </si>
+  <si>
+    <t>Hoàn thành màn hình Công văn,
+Tiếp tục Buid giao diện màn hình Tìm kiếm.</t>
   </si>
 </sst>
 </file>
@@ -186,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -199,17 +217,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C48"/>
+  <dimension ref="B2:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +584,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -570,13 +592,13 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -584,7 +606,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -627,7 +649,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -635,13 +657,13 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -649,7 +671,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -692,7 +714,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -700,13 +722,13 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -714,7 +736,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
@@ -757,7 +779,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -765,13 +787,13 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -779,7 +801,7 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
@@ -791,29 +813,29 @@
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <v>41925</v>
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+    <row r="41" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+    <row r="42" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
@@ -821,7 +843,7 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
@@ -829,13 +851,13 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
+      <c r="B45" s="10"/>
       <c r="C45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
@@ -843,17 +865,83 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
+      <c r="B47" s="10"/>
       <c r="C47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="9">
+        <v>41926</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -100,6 +100,26 @@
   <si>
     <t>Hoàn thành màn hình Công văn,
 Tiếp tục Buid giao diện màn hình Tìm kiếm.</t>
+  </si>
+  <si>
+    <t>`- Công việc 1:Buid giao diện màn hình Tìm Kiếm và kết nối API cho màn hình này.
+`- Công việc 2: Buid giao diện màn hình Công việc theo dõi
+`- Công việc 2: Buid giao diện màn hình Công việc hoàn thành</t>
+  </si>
+  <si>
+    <t>- Công việc 1: 90%
+'- Công việc 2: hoàn thành
+'- Công việc 2: hoàn thành</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Chưa có API Tìm kiếm</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Yêu cầu bộ phận thiết kế API hoàn thành .</t>
+  </si>
+  <si>
+    <t>Hoàn thành màn hình Tìm kiếm
+và kết nối API cho các màn hình còn lại</t>
   </si>
 </sst>
 </file>
@@ -222,16 +242,16 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C57"/>
+  <dimension ref="B2:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +604,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -592,13 +612,13 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -606,7 +626,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -649,7 +669,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -657,13 +677,13 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -671,7 +691,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -714,7 +734,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -722,13 +742,13 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -736,7 +756,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
@@ -779,7 +799,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -787,13 +807,13 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -801,7 +821,7 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
@@ -896,7 +916,7 @@
       <c r="B51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -912,7 +932,7 @@
       <c r="B53" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -926,7 +946,7 @@
       <c r="B55" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -942,6 +962,72 @@
       </c>
       <c r="C57" s="8" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="9">
+        <v>41928</v>
+      </c>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -120,6 +120,23 @@
   <si>
     <t>Hoàn thành màn hình Tìm kiếm
 và kết nối API cho các màn hình còn lại</t>
+  </si>
+  <si>
+    <t>- Công việc 1:Làm lại các màn hình bị  mất, hoàn thiện giao diện màn hình công văn.
+- Công việc 2:Kết nối API cho các màn hình, lấy về data theo Thứ tự Page được Post.</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành
+- Công việc 2: 60%</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: :Yêu cầu bộ phận thiết kế API thiết kế API ch các màn hình . Vd: Tìm kiếm, Công việc được giao...</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2:Chưa có đủ các API để lấy data phù hợp vs mỗi màn hình</t>
+  </si>
+  <si>
+    <t>hoàn thiệ giao diện màn hình Tìm kiếm, và hoàn thiện các mà hình còn lại</t>
   </si>
 </sst>
 </file>
@@ -556,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C66"/>
+  <dimension ref="B2:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,8 +1047,77 @@
         <v>30</v>
       </c>
     </row>
+    <row r="67" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="6">
+        <f>B58+1</f>
+        <v>41929</v>
+      </c>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="14"/>
+      <c r="C72" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="14"/>
+      <c r="C74" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>

--- a/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -137,6 +137,23 @@
   </si>
   <si>
     <t>hoàn thiệ giao diện màn hình Tìm kiếm, và hoàn thiện các mà hình còn lại</t>
+  </si>
+  <si>
+    <t>- Công việc 1:Buid giao diện màn hình Sửa công việc.
+- Công việc 2:Load data cho màn hhình Công văn từ Dbcontroller</t>
+  </si>
+  <si>
+    <t>- Công việc 1: 50%
+- Công việc 2: hoàn thành</t>
+  </si>
+  <si>
+    <t>- Vấn đề : đg tìm hiểu cách gửi tệp đính kèm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vấn đề 1: </t>
+  </si>
+  <si>
+    <t>hoàn thiệ giao diện màn hình sua cong viec. (SuaCongViecAtivity.java)</t>
   </si>
 </sst>
 </file>
@@ -573,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C75"/>
+  <dimension ref="B2:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,18 +1131,86 @@
         <v>35</v>
       </c>
     </row>
+    <row r="76" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B76" s="6">
+        <v>41934</v>
+      </c>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="14"/>
+      <c r="C81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="14"/>
+      <c r="C83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/NgaDV_Daily report - October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="43">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -154,6 +154,13 @@
   </si>
   <si>
     <t>hoàn thiệ giao diện màn hình sua cong viec. (SuaCongViecAtivity.java)</t>
+  </si>
+  <si>
+    <t>- Công việc 1:Buid giao diện màn hình Sửa công việc.
+- Công việc 2:hoàn thiện các màn hình CongViecTheoDoi,CongViecHoanThanh,TatCaCongViec.</t>
+  </si>
+  <si>
+    <t>Sửa Dbcontroller để các màn hình CongViecTheoDoi,CongViecHoanThanh lay đúng dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -590,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C84"/>
+  <dimension ref="B2:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,8 +1204,76 @@
         <v>40</v>
       </c>
     </row>
+    <row r="85" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B85" s="6">
+        <v>41935</v>
+      </c>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="14"/>
+      <c r="C90" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="14"/>
+      <c r="C92" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="B8:B9"/>
